--- a/excel.xlsx
+++ b/excel.xlsx
@@ -205,13 +205,13 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -450,7 +450,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="6">
-        <v>2.0830521895939853E7</v>
+        <v>3.2137386E7</v>
       </c>
       <c r="D2" s="7">
         <v>0.21</v>
@@ -464,7 +464,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="6">
-        <v>9919296.14092374</v>
+        <v>1.5303517E7</v>
       </c>
       <c r="D3" s="7">
         <v>0.1</v>
@@ -478,7 +478,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="6">
-        <v>2.975788842277122E7</v>
+        <v>4.5910552E7</v>
       </c>
       <c r="D4" s="7">
         <v>0.3</v>
@@ -492,7 +492,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="6">
-        <v>1.983859228184748E7</v>
+        <v>3.0607035E7</v>
       </c>
       <c r="D5" s="7">
         <v>0.2</v>
@@ -506,7 +506,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="6">
-        <v>1.3887014597293237E7</v>
+        <v>2.1424924E7</v>
       </c>
       <c r="D6" s="7">
         <v>0.14</v>
@@ -520,7 +520,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="6">
-        <v>4959648.07046187</v>
+        <v>7651759.0</v>
       </c>
       <c r="D7" s="7">
         <v>0.05</v>
@@ -539,10 +539,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="6">
-        <v>7.402459806659508E7</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0.33999999999999997</v>
+        <v>5.2031959E7</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.34</v>
       </c>
     </row>
     <row r="10">
@@ -553,9 +553,9 @@
         <v>12</v>
       </c>
       <c r="C10" s="6">
-        <v>2.5168363342642322E7</v>
-      </c>
-      <c r="D10" s="8">
+        <v>1.01003214E8</v>
+      </c>
+      <c r="D10" s="7">
         <v>0.66</v>
       </c>
     </row>
@@ -567,9 +567,9 @@
         <v>13</v>
       </c>
       <c r="C11" s="6">
-        <v>1.4139529967776585E7</v>
-      </c>
-      <c r="D11" s="8">
+        <v>7.8782507E7</v>
+      </c>
+      <c r="D11" s="7">
         <v>0.78</v>
       </c>
     </row>
@@ -577,69 +577,69 @@
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="6">
-        <v>1.1028833374865737E7</v>
-      </c>
-      <c r="D12" s="8">
+        <v>2.2220707E7</v>
+      </c>
+      <c r="D12" s="7">
         <v>0.22</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="6">
-        <v>6266382.599355532</v>
-      </c>
-      <c r="D13" s="8">
+        <v>1.6887737E7</v>
+      </c>
+      <c r="D13" s="7">
         <v>0.76</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="6">
-        <v>4762450.775510204</v>
-      </c>
-      <c r="D14" s="8">
+        <v>5332970.0</v>
+      </c>
+      <c r="D14" s="7">
         <v>0.24</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="6">
-        <v>2801441.6326530613</v>
-      </c>
-      <c r="D15" s="8">
+        <v>3733079.0</v>
+      </c>
+      <c r="D15" s="7">
         <v>0.7</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="6">
-        <v>1961009.1428571427</v>
-      </c>
-      <c r="D16" s="8">
+        <v>1599891.0</v>
+      </c>
+      <c r="D16" s="7">
         <v>0.3</v>
       </c>
     </row>
@@ -651,9 +651,9 @@
         <v>19</v>
       </c>
       <c r="C17" s="6">
-        <v>1257057.1428571427</v>
-      </c>
-      <c r="D17" s="8">
+        <v>895939.0</v>
+      </c>
+      <c r="D17" s="7">
         <v>0.56</v>
       </c>
     </row>
@@ -667,15 +667,15 @@
       <c r="C18" s="6">
         <v>703952.0</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>0.44</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="6">
@@ -683,93 +683,93 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="8"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="6">
         <v>54331.0</v>
       </c>
-      <c r="D21" s="8">
-        <v>0.19450331505162316</v>
+      <c r="D21" s="7">
+        <v>0.19</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="6">
         <v>0.0</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>0.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="6">
         <v>225001.0</v>
       </c>
-      <c r="D23" s="8">
-        <v>0.8054966849483769</v>
+      <c r="D23" s="7">
+        <v>0.81</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="6">
         <v>225001.0</v>
       </c>
-      <c r="D24" s="8">
-        <v>0.2264056204693921</v>
+      <c r="D24" s="7">
+        <v>0.23</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="6">
         <v>703952.0</v>
       </c>
-      <c r="D25" s="8">
-        <v>0.7083465821959436</v>
+      <c r="D25" s="7">
+        <v>0.71</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="6">
         <v>64843.0</v>
       </c>
-      <c r="D26" s="8">
-        <v>0.06524779733466425</v>
+      <c r="D26" s="7">
+        <v>0.07</v>
       </c>
     </row>
     <row r="27">
@@ -779,46 +779,46 @@
       <c r="A28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="6">
         <v>776649.0</v>
       </c>
-      <c r="D28" s="8">
-        <v>0.231884875795953</v>
+      <c r="D28" s="7">
+        <v>0.23</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="6">
         <v>1524223.0</v>
       </c>
-      <c r="D29" s="8">
-        <v>0.4550887994967287</v>
+      <c r="D29" s="7">
+        <v>0.46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="6">
         <v>1048415.0</v>
       </c>
-      <c r="D30" s="8">
-        <v>0.3130263247073183</v>
+      <c r="D30" s="7">
+        <v>0.31</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -827,12 +827,12 @@
       <c r="C31" s="6">
         <v>1237473.0</v>
       </c>
-      <c r="D31" s="8">
-        <v>0.3694735625821257</v>
+      <c r="D31" s="7">
+        <v>0.37</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -841,12 +841,12 @@
       <c r="C32" s="6">
         <v>1365878.0</v>
       </c>
-      <c r="D32" s="8">
-        <v>0.40781157303031956</v>
+      <c r="D32" s="7">
+        <v>0.41</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -855,8 +855,8 @@
       <c r="C33" s="6">
         <v>745936.0</v>
       </c>
-      <c r="D33" s="8">
-        <v>0.22271486438755472</v>
+      <c r="D33" s="7">
+        <v>0.22</v>
       </c>
     </row>
     <row r="34">
@@ -872,12 +872,12 @@
       <c r="C35" s="6">
         <v>745936.0</v>
       </c>
-      <c r="D35" s="8">
-        <v>0.42876489022447134</v>
+      <c r="D35" s="7">
+        <v>0.43</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -886,8 +886,8 @@
       <c r="C36" s="6">
         <v>993796.0</v>
       </c>
-      <c r="D36" s="8">
-        <v>0.5712351097755286</v>
+      <c r="D36" s="7">
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
